--- a/data/panelapp/au/Ataxia - paediatric.xlsx
+++ b/data/panelapp/au/Ataxia - paediatric.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E224"/>
+  <dimension ref="A1:F226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,11 @@
           <t>panel</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>time_taken</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -479,6 +484,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459087</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -504,6 +514,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459098</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -529,6 +544,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459102</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -554,6 +574,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459104</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -579,6 +604,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459107</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -604,6 +634,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459110</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -629,6 +664,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459112</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -654,6 +694,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459115</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -679,6 +724,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459118</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -704,6 +754,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459120</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -729,6 +784,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459122</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -754,6 +814,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459125</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -779,6 +844,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459127</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -804,6 +874,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459130</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -829,6 +904,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459132</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -854,6 +934,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459135</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -879,6 +964,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459138</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -904,6 +994,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459140</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -929,6 +1024,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459143</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -954,6 +1054,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459145</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -979,6 +1084,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459147</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1004,6 +1114,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459150</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1029,6 +1144,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459152</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1054,6 +1174,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459155</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1079,6 +1204,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459158</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1104,6 +1234,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459160</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1129,6 +1264,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459163</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1154,6 +1294,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459165</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1179,6 +1324,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459168</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1204,6 +1354,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459170</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1229,6 +1384,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459172</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1254,6 +1414,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459175</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1279,6 +1444,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459178</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1304,6 +1474,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459180</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1329,6 +1504,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459182</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1354,6 +1534,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459185</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1379,6 +1564,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459187</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1404,6 +1594,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459190</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1429,6 +1624,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459192</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1454,6 +1654,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459195</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1479,6 +1684,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459197</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1504,6 +1714,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459200</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1529,6 +1744,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459202</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1554,6 +1774,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459205</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1579,6 +1804,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459207</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1604,6 +1834,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459210</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1629,6 +1864,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459212</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1654,6 +1894,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459215</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1679,6 +1924,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459217</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1704,6 +1954,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459220</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1729,6 +1984,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459222</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +2014,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459225</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1779,6 +2044,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459228</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1804,6 +2074,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459230</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1829,6 +2104,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459233</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1854,6 +2134,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459235</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1879,6 +2164,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459238</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1904,6 +2194,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459240</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1929,6 +2224,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459242</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1954,6 +2254,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459245</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1979,6 +2284,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459247</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2004,6 +2314,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459250</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2029,6 +2344,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459252</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2054,6 +2374,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459255</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2079,6 +2404,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459258</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2104,6 +2434,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459261</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2129,6 +2464,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459263</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2154,6 +2494,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459266</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2179,6 +2524,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459268</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2204,6 +2554,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459270</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2229,6 +2584,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459273</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2254,6 +2614,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459275</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2279,6 +2644,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459278</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2304,6 +2674,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459280</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2329,6 +2704,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459283</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2354,6 +2734,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459285</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2379,6 +2764,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459289</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2404,6 +2794,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459292</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2429,6 +2824,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459295</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2454,6 +2854,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459297</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2479,6 +2884,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459300</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2504,6 +2914,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459302</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2529,6 +2944,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459305</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2554,6 +2974,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459307</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2579,6 +3004,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459309</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2604,6 +3034,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459312</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2629,6 +3064,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459314</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2654,6 +3094,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459317</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2679,6 +3124,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459319</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2704,6 +3154,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459322</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -2729,6 +3184,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459324</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -2754,6 +3214,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459326</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -2779,6 +3244,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459330</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -2804,6 +3274,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459333</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -2829,6 +3304,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459335</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -2854,6 +3334,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459338</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -2879,6 +3364,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459340</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -2904,6 +3394,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459343</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -2929,6 +3424,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459345</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -2954,6 +3454,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459347</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -2979,6 +3484,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459350</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -3004,6 +3514,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459352</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -3029,6 +3544,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459355</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -3054,6 +3574,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459357</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -3079,6 +3604,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459360</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -3104,6 +3634,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459362</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -3129,6 +3664,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459365</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -3154,6 +3694,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459367</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -3179,6 +3724,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459371</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -3204,6 +3754,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459374</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -3229,6 +3784,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459377</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -3254,6 +3814,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459379</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -3279,6 +3844,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459382</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -3304,6 +3874,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459384</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -3329,6 +3904,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459387</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -3354,6 +3934,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459389</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -3379,6 +3964,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459392</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -3404,6 +3994,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459394</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -3429,6 +4024,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459397</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -3454,6 +4054,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459399</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -3479,6 +4084,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459402</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -3504,6 +4114,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459404</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -3529,6 +4144,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459407</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -3554,6 +4174,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459409</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -3579,6 +4204,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459411</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -3604,6 +4234,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459414</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -3629,6 +4264,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459416</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -3654,6 +4294,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459419</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -3679,6 +4324,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459423</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -3704,6 +4354,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459426</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -3729,6 +4384,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459429</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -3754,6 +4414,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459431</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -3779,6 +4444,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459433</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -3804,6 +4474,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459436</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -3829,6 +4504,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459438</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -3854,6 +4534,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459441</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -3879,6 +4564,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459443</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -3904,6 +4594,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459446</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -3929,6 +4624,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459448</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -3954,6 +4654,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459450</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -3979,6 +4684,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459453</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4004,6 +4714,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459455</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4029,6 +4744,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459458</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -4054,6 +4774,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459460</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -4079,6 +4804,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459463</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -4104,6 +4834,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459465</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -4129,6 +4864,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459468</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -4154,6 +4894,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459470</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -4179,6 +4924,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459473</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -4204,6 +4954,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459476</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -4229,6 +4984,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459478</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -4254,6 +5014,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459481</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -4279,6 +5044,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459483</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -4304,6 +5074,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459486</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -4329,6 +5104,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459488</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -4354,6 +5134,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459491</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -4379,6 +5164,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459493</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -4404,6 +5194,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459496</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -4429,6 +5224,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459498</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -4454,6 +5254,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459501</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -4479,6 +5284,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459503</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -4504,6 +5314,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459506</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -4529,6 +5344,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459508</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -4554,6 +5374,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459511</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -4579,6 +5404,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459513</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -4604,6 +5434,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459516</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -4629,6 +5464,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459518</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -4654,6 +5494,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459520</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -4679,6 +5524,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459523</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -4704,6 +5554,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459525</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -4729,6 +5584,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459528</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -4754,6 +5614,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459530</t>
+        </is>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -4779,6 +5644,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459534</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -4804,6 +5674,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459537</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -4829,6 +5704,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459540</t>
+        </is>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -4854,6 +5734,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459542</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -4879,6 +5764,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459545</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -4904,6 +5794,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459547</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -4929,6 +5824,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459550</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -4954,6 +5854,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459552</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -4979,6 +5884,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459555</t>
+        </is>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -5004,6 +5914,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459557</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -5029,6 +5944,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459559</t>
+        </is>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -5054,6 +5974,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459562</t>
+        </is>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -5079,6 +6004,11 @@
           <t>Ataxia - paediatric</t>
         </is>
       </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459564</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -5086,12 +6016,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SLC9A1</t>
+          <t>RFXANK</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>solute carrier family 9 member A1</t>
+          <t>regulatory factor X associated ankyrin containing protein</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -5102,6 +6032,11 @@
       <c r="E187" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459567</t>
         </is>
       </c>
     </row>
@@ -5111,12 +6046,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SYNGAP1</t>
+          <t>SLC9A1</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>synaptic Ras GTPase activating protein 1</t>
+          <t>solute carrier family 9 member A1</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -5127,6 +6062,11 @@
       <c r="E188" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459569</t>
         </is>
       </c>
     </row>
@@ -5136,12 +6076,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TMEM138</t>
+          <t>SYNGAP1</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>transmembrane protein 138</t>
+          <t>synaptic Ras GTPase activating protein 1</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -5152,6 +6092,11 @@
       <c r="E189" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459572</t>
         </is>
       </c>
     </row>
@@ -5161,12 +6106,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TMEM231</t>
+          <t>TMEM138</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>transmembrane protein 231</t>
+          <t>transmembrane protein 138</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -5177,6 +6122,11 @@
       <c r="E190" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459574</t>
         </is>
       </c>
     </row>
@@ -5186,12 +6136,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>UBA5</t>
+          <t>TMEM231</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ubiquitin like modifier activating enzyme 5</t>
+          <t>transmembrane protein 231</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5202,6 +6152,11 @@
       <c r="E191" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459577</t>
         </is>
       </c>
     </row>
@@ -5211,12 +6166,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>UBR4</t>
+          <t>UBA5</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
+          <t>ubiquitin like modifier activating enzyme 5</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -5227,6 +6182,11 @@
       <c r="E192" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459579</t>
         </is>
       </c>
     </row>
@@ -5236,12 +6196,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>VRK1</t>
+          <t>UBR4</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>vaccinia related kinase 1</t>
+          <t>ubiquitin protein ligase E3 component n-recognin 4</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -5252,6 +6212,11 @@
       <c r="E193" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459582</t>
         </is>
       </c>
     </row>
@@ -5261,22 +6226,27 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>AMPD2</t>
+          <t>VRK1</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>adenosine monophosphate deaminase 2</t>
+          <t>vaccinia related kinase 1</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459584</t>
         </is>
       </c>
     </row>
@@ -5286,12 +6256,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ARL6</t>
+          <t>AMPD2</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>ADP ribosylation factor like GTPase 6</t>
+          <t>adenosine monophosphate deaminase 2</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -5302,6 +6272,11 @@
       <c r="E195" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459587</t>
         </is>
       </c>
     </row>
@@ -5311,12 +6286,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ARMC9</t>
+          <t>ARL6</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>armadillo repeat containing 9</t>
+          <t>ADP ribosylation factor like GTPase 6</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -5327,6 +6302,11 @@
       <c r="E196" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459589</t>
         </is>
       </c>
     </row>
@@ -5336,12 +6316,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>BBS10</t>
+          <t>ARMC9</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 10</t>
+          <t>armadillo repeat containing 9</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -5352,6 +6332,11 @@
       <c r="E197" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459591</t>
         </is>
       </c>
     </row>
@@ -5361,12 +6346,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>BBS12</t>
+          <t>BBS10</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 12</t>
+          <t>Bardet-Biedl syndrome 10</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -5377,6 +6362,11 @@
       <c r="E198" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459594</t>
         </is>
       </c>
     </row>
@@ -5386,12 +6376,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>BBS2</t>
+          <t>BBS12</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 2</t>
+          <t>Bardet-Biedl syndrome 12</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -5402,6 +6392,11 @@
       <c r="E199" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459596</t>
         </is>
       </c>
     </row>
@@ -5411,12 +6406,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>BBS4</t>
+          <t>BBS2</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 4</t>
+          <t>Bardet-Biedl syndrome 2</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -5427,6 +6422,11 @@
       <c r="E200" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459599</t>
         </is>
       </c>
     </row>
@@ -5436,12 +6436,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>BBS5</t>
+          <t>BBS4</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 5</t>
+          <t>Bardet-Biedl syndrome 4</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -5452,6 +6452,11 @@
       <c r="E201" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459601</t>
         </is>
       </c>
     </row>
@@ -5461,12 +6466,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BBS7</t>
+          <t>BBS5</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 7</t>
+          <t>Bardet-Biedl syndrome 5</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -5477,6 +6482,11 @@
       <c r="E202" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459604</t>
         </is>
       </c>
     </row>
@@ -5486,12 +6496,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>BBS9</t>
+          <t>BBS7</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Bardet-Biedl syndrome 9</t>
+          <t>Bardet-Biedl syndrome 7</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -5502,6 +6512,11 @@
       <c r="E203" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459607</t>
         </is>
       </c>
     </row>
@@ -5511,12 +6526,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>CCDC28B</t>
+          <t>BBS9</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>coiled-coil domain containing 28B</t>
+          <t>Bardet-Biedl syndrome 9</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -5527,6 +6542,11 @@
       <c r="E204" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459609</t>
         </is>
       </c>
     </row>
@@ -5536,12 +6556,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>CHMP1A</t>
+          <t>CCDC28B</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>charged multivesicular body protein 1A</t>
+          <t>coiled-coil domain containing 28B</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -5552,6 +6572,11 @@
       <c r="E205" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459612</t>
         </is>
       </c>
     </row>
@@ -5561,12 +6586,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>COQ5</t>
+          <t>CHMP1A</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>coenzyme Q5, methyltransferase</t>
+          <t>charged multivesicular body protein 1A</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -5577,6 +6602,11 @@
       <c r="E206" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459614</t>
         </is>
       </c>
     </row>
@@ -5586,12 +6616,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>CYP2U1</t>
+          <t>COQ5</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>cytochrome P450 family 2 subfamily U member 1</t>
+          <t>coenzyme Q5, methyltransferase</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -5602,6 +6632,11 @@
       <c r="E207" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459617</t>
         </is>
       </c>
     </row>
@@ -5611,12 +6646,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ELOVL1</t>
+          <t>CYP2U1</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>ELOVL fatty acid elongase 1</t>
+          <t>cytochrome P450 family 2 subfamily U member 1</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -5627,6 +6662,11 @@
       <c r="E208" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459619</t>
         </is>
       </c>
     </row>
@@ -5636,12 +6676,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>EXOSC3</t>
+          <t>DAB1</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>exosome component 3</t>
+          <t>DAB1, reelin adaptor protein</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -5652,6 +6692,11 @@
       <c r="E209" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459622</t>
         </is>
       </c>
     </row>
@@ -5661,12 +6706,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>HARS2</t>
+          <t>ELOVL1</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>histidyl-tRNA synthetase 2, mitochondrial</t>
+          <t>ELOVL fatty acid elongase 1</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -5677,6 +6722,11 @@
       <c r="E210" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459624</t>
         </is>
       </c>
     </row>
@@ -5686,12 +6736,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>PCDH12</t>
+          <t>EXOSC3</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>protocadherin 12</t>
+          <t>exosome component 3</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -5702,6 +6752,11 @@
       <c r="E211" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459626</t>
         </is>
       </c>
     </row>
@@ -5711,12 +6766,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>PCYT2</t>
+          <t>HARS2</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
+          <t>histidyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -5727,6 +6782,11 @@
       <c r="E212" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459629</t>
         </is>
       </c>
     </row>
@@ -5736,12 +6796,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>RARS2</t>
+          <t>PCDH12</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>arginyl-tRNA synthetase 2, mitochondrial</t>
+          <t>protocadherin 12</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -5752,6 +6812,11 @@
       <c r="E213" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459632</t>
         </is>
       </c>
     </row>
@@ -5761,12 +6826,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>SAR1B</t>
+          <t>PCYT2</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>secretion associated Ras related GTPase 1B</t>
+          <t>phosphate cytidylyltransferase 2, ethanolamine</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -5777,6 +6842,11 @@
       <c r="E214" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459634</t>
         </is>
       </c>
     </row>
@@ -5786,12 +6856,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>TRIM32</t>
+          <t>RARS2</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>tripartite motif containing 32</t>
+          <t>arginyl-tRNA synthetase 2, mitochondrial</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -5802,6 +6872,11 @@
       <c r="E215" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459637</t>
         </is>
       </c>
     </row>
@@ -5811,12 +6886,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>TSEN2</t>
+          <t>SAR1B</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 2</t>
+          <t>secretion associated Ras related GTPase 1B</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -5827,6 +6902,11 @@
       <c r="E216" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459639</t>
         </is>
       </c>
     </row>
@@ -5836,12 +6916,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>TSEN34</t>
+          <t>TRIM32</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>tRNA splicing endonuclease subunit 34</t>
+          <t>tripartite motif containing 32</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -5852,6 +6932,11 @@
       <c r="E217" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459642</t>
         </is>
       </c>
     </row>
@@ -5861,12 +6946,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>TTC8</t>
+          <t>TSEN2</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>tetratricopeptide repeat domain 8</t>
+          <t>tRNA splicing endonuclease subunit 2</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -5877,6 +6962,11 @@
       <c r="E218" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459644</t>
         </is>
       </c>
     </row>
@@ -5886,12 +6976,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>TTI1</t>
+          <t>TSEN34</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>TELO2 interacting protein 1</t>
+          <t>tRNA splicing endonuclease subunit 34</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -5902,6 +6992,11 @@
       <c r="E219" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459647</t>
         </is>
       </c>
     </row>
@@ -5911,12 +7006,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>TUBA1A</t>
+          <t>TTC8</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>tubulin alpha 1a</t>
+          <t>tetratricopeptide repeat domain 8</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -5927,6 +7022,11 @@
       <c r="E220" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459649</t>
         </is>
       </c>
     </row>
@@ -5936,12 +7036,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>TUBB2A</t>
+          <t>TTI1</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>tubulin beta 2A class IIa</t>
+          <t>TELO2 interacting protein 1</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -5952,6 +7052,11 @@
       <c r="E221" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459652</t>
         </is>
       </c>
     </row>
@@ -5961,12 +7066,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>WDPCP</t>
+          <t>TUBA1A</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>WD repeat containing planar cell polarity effector</t>
+          <t>tubulin alpha 1a</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -5977,6 +7082,11 @@
       <c r="E222" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459654</t>
         </is>
       </c>
     </row>
@@ -5986,12 +7096,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ZNF423</t>
+          <t>TUBB2A</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>zinc finger protein 423</t>
+          <t>tubulin beta 2A class IIa</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -6002,6 +7112,11 @@
       <c r="E223" t="inlineStr">
         <is>
           <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459657</t>
         </is>
       </c>
     </row>
@@ -6011,22 +7126,87 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
+          <t>WDPCP</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>WD repeat containing planar cell polarity effector</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459659</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ZNF423</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>zinc finger protein 423</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459661</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
           <t>ZNF592</t>
         </is>
       </c>
-      <c r="C224" t="inlineStr">
+      <c r="C226" t="inlineStr">
         <is>
           <t>zinc finger protein 592</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr">
+      <c r="D226" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>Ataxia - paediatric</t>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2021-10-05 10:50:11.459664</t>
         </is>
       </c>
     </row>

--- a/data/panelapp/au/Ataxia - paediatric.xlsx
+++ b/data/panelapp/au/Ataxia - paediatric.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="metadata" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -486,7 +487,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459087</t>
+          <t>2021-10-05 14:33:12.562206</t>
         </is>
       </c>
     </row>
@@ -516,7 +517,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459098</t>
+          <t>2021-10-05 14:33:12.562213</t>
         </is>
       </c>
     </row>
@@ -546,7 +547,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459102</t>
+          <t>2021-10-05 14:33:12.562216</t>
         </is>
       </c>
     </row>
@@ -576,7 +577,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459104</t>
+          <t>2021-10-05 14:33:12.562218</t>
         </is>
       </c>
     </row>
@@ -606,7 +607,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459107</t>
+          <t>2021-10-05 14:33:12.562220</t>
         </is>
       </c>
     </row>
@@ -636,7 +637,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459110</t>
+          <t>2021-10-05 14:33:12.562222</t>
         </is>
       </c>
     </row>
@@ -666,7 +667,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459112</t>
+          <t>2021-10-05 14:33:12.562225</t>
         </is>
       </c>
     </row>
@@ -696,7 +697,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459115</t>
+          <t>2021-10-05 14:33:12.562227</t>
         </is>
       </c>
     </row>
@@ -726,7 +727,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459118</t>
+          <t>2021-10-05 14:33:12.562229</t>
         </is>
       </c>
     </row>
@@ -756,7 +757,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459120</t>
+          <t>2021-10-05 14:33:12.562232</t>
         </is>
       </c>
     </row>
@@ -786,7 +787,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459122</t>
+          <t>2021-10-05 14:33:12.562234</t>
         </is>
       </c>
     </row>
@@ -816,7 +817,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459125</t>
+          <t>2021-10-05 14:33:12.562236</t>
         </is>
       </c>
     </row>
@@ -846,7 +847,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459127</t>
+          <t>2021-10-05 14:33:12.562238</t>
         </is>
       </c>
     </row>
@@ -876,7 +877,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459130</t>
+          <t>2021-10-05 14:33:12.562240</t>
         </is>
       </c>
     </row>
@@ -906,7 +907,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459132</t>
+          <t>2021-10-05 14:33:12.562242</t>
         </is>
       </c>
     </row>
@@ -936,7 +937,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459135</t>
+          <t>2021-10-05 14:33:12.562245</t>
         </is>
       </c>
     </row>
@@ -966,7 +967,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459138</t>
+          <t>2021-10-05 14:33:12.562247</t>
         </is>
       </c>
     </row>
@@ -996,7 +997,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459140</t>
+          <t>2021-10-05 14:33:12.562249</t>
         </is>
       </c>
     </row>
@@ -1026,7 +1027,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459143</t>
+          <t>2021-10-05 14:33:12.562251</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1057,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459145</t>
+          <t>2021-10-05 14:33:12.562254</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459147</t>
+          <t>2021-10-05 14:33:12.562256</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1117,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459150</t>
+          <t>2021-10-05 14:33:12.562258</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1147,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459152</t>
+          <t>2021-10-05 14:33:12.562260</t>
         </is>
       </c>
     </row>
@@ -1176,7 +1177,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459155</t>
+          <t>2021-10-05 14:33:12.562262</t>
         </is>
       </c>
     </row>
@@ -1206,7 +1207,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459158</t>
+          <t>2021-10-05 14:33:12.562265</t>
         </is>
       </c>
     </row>
@@ -1236,7 +1237,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459160</t>
+          <t>2021-10-05 14:33:12.562267</t>
         </is>
       </c>
     </row>
@@ -1266,7 +1267,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459163</t>
+          <t>2021-10-05 14:33:12.562269</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1297,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459165</t>
+          <t>2021-10-05 14:33:12.562272</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1327,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459168</t>
+          <t>2021-10-05 14:33:12.562274</t>
         </is>
       </c>
     </row>
@@ -1356,7 +1357,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459170</t>
+          <t>2021-10-05 14:33:12.562276</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1387,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459172</t>
+          <t>2021-10-05 14:33:12.562278</t>
         </is>
       </c>
     </row>
@@ -1416,7 +1417,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459175</t>
+          <t>2021-10-05 14:33:12.562280</t>
         </is>
       </c>
     </row>
@@ -1446,7 +1447,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459178</t>
+          <t>2021-10-05 14:33:12.562282</t>
         </is>
       </c>
     </row>
@@ -1476,7 +1477,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459180</t>
+          <t>2021-10-05 14:33:12.562285</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1507,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459182</t>
+          <t>2021-10-05 14:33:12.562287</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1537,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459185</t>
+          <t>2021-10-05 14:33:12.562289</t>
         </is>
       </c>
     </row>
@@ -1566,7 +1567,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459187</t>
+          <t>2021-10-05 14:33:12.562291</t>
         </is>
       </c>
     </row>
@@ -1596,7 +1597,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459190</t>
+          <t>2021-10-05 14:33:12.562293</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1627,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459192</t>
+          <t>2021-10-05 14:33:12.562295</t>
         </is>
       </c>
     </row>
@@ -1656,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459195</t>
+          <t>2021-10-05 14:33:12.562297</t>
         </is>
       </c>
     </row>
@@ -1686,7 +1687,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459197</t>
+          <t>2021-10-05 14:33:12.562300</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1717,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459200</t>
+          <t>2021-10-05 14:33:12.562302</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1747,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459202</t>
+          <t>2021-10-05 14:33:12.562304</t>
         </is>
       </c>
     </row>
@@ -1776,7 +1777,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459205</t>
+          <t>2021-10-05 14:33:12.562307</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1807,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459207</t>
+          <t>2021-10-05 14:33:12.562309</t>
         </is>
       </c>
     </row>
@@ -1836,7 +1837,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459210</t>
+          <t>2021-10-05 14:33:12.562311</t>
         </is>
       </c>
     </row>
@@ -1866,7 +1867,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459212</t>
+          <t>2021-10-05 14:33:12.562313</t>
         </is>
       </c>
     </row>
@@ -1896,7 +1897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459215</t>
+          <t>2021-10-05 14:33:12.562316</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1927,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459217</t>
+          <t>2021-10-05 14:33:12.562318</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1957,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459220</t>
+          <t>2021-10-05 14:33:12.562320</t>
         </is>
       </c>
     </row>
@@ -1986,7 +1987,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459222</t>
+          <t>2021-10-05 14:33:12.562322</t>
         </is>
       </c>
     </row>
@@ -2016,7 +2017,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459225</t>
+          <t>2021-10-05 14:33:12.562324</t>
         </is>
       </c>
     </row>
@@ -2046,7 +2047,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459228</t>
+          <t>2021-10-05 14:33:12.562326</t>
         </is>
       </c>
     </row>
@@ -2076,7 +2077,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459230</t>
+          <t>2021-10-05 14:33:12.562329</t>
         </is>
       </c>
     </row>
@@ -2106,7 +2107,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459233</t>
+          <t>2021-10-05 14:33:12.562331</t>
         </is>
       </c>
     </row>
@@ -2136,7 +2137,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459235</t>
+          <t>2021-10-05 14:33:12.562333</t>
         </is>
       </c>
     </row>
@@ -2166,7 +2167,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459238</t>
+          <t>2021-10-05 14:33:12.562335</t>
         </is>
       </c>
     </row>
@@ -2196,7 +2197,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459240</t>
+          <t>2021-10-05 14:33:12.562337</t>
         </is>
       </c>
     </row>
@@ -2226,7 +2227,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459242</t>
+          <t>2021-10-05 14:33:12.562339</t>
         </is>
       </c>
     </row>
@@ -2256,7 +2257,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459245</t>
+          <t>2021-10-05 14:33:12.562341</t>
         </is>
       </c>
     </row>
@@ -2286,7 +2287,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459247</t>
+          <t>2021-10-05 14:33:12.562343</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2317,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459250</t>
+          <t>2021-10-05 14:33:12.562346</t>
         </is>
       </c>
     </row>
@@ -2346,7 +2347,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459252</t>
+          <t>2021-10-05 14:33:12.562348</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2377,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459255</t>
+          <t>2021-10-05 14:33:12.562350</t>
         </is>
       </c>
     </row>
@@ -2406,7 +2407,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459258</t>
+          <t>2021-10-05 14:33:12.562353</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2437,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459261</t>
+          <t>2021-10-05 14:33:12.562356</t>
         </is>
       </c>
     </row>
@@ -2466,7 +2467,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459263</t>
+          <t>2021-10-05 14:33:12.562358</t>
         </is>
       </c>
     </row>
@@ -2496,7 +2497,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459266</t>
+          <t>2021-10-05 14:33:12.562360</t>
         </is>
       </c>
     </row>
@@ -2526,7 +2527,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459268</t>
+          <t>2021-10-05 14:33:12.562363</t>
         </is>
       </c>
     </row>
@@ -2556,7 +2557,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459270</t>
+          <t>2021-10-05 14:33:12.562365</t>
         </is>
       </c>
     </row>
@@ -2586,7 +2587,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459273</t>
+          <t>2021-10-05 14:33:12.562367</t>
         </is>
       </c>
     </row>
@@ -2616,7 +2617,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459275</t>
+          <t>2021-10-05 14:33:12.562369</t>
         </is>
       </c>
     </row>
@@ -2646,7 +2647,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459278</t>
+          <t>2021-10-05 14:33:12.562371</t>
         </is>
       </c>
     </row>
@@ -2676,7 +2677,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459280</t>
+          <t>2021-10-05 14:33:12.562374</t>
         </is>
       </c>
     </row>
@@ -2706,7 +2707,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459283</t>
+          <t>2021-10-05 14:33:12.562376</t>
         </is>
       </c>
     </row>
@@ -2736,7 +2737,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459285</t>
+          <t>2021-10-05 14:33:12.562378</t>
         </is>
       </c>
     </row>
@@ -2766,7 +2767,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459289</t>
+          <t>2021-10-05 14:33:12.562382</t>
         </is>
       </c>
     </row>
@@ -2796,7 +2797,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459292</t>
+          <t>2021-10-05 14:33:12.562384</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2827,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459295</t>
+          <t>2021-10-05 14:33:12.562387</t>
         </is>
       </c>
     </row>
@@ -2856,7 +2857,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459297</t>
+          <t>2021-10-05 14:33:12.562389</t>
         </is>
       </c>
     </row>
@@ -2886,7 +2887,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459300</t>
+          <t>2021-10-05 14:33:12.562391</t>
         </is>
       </c>
     </row>
@@ -2916,7 +2917,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459302</t>
+          <t>2021-10-05 14:33:12.562393</t>
         </is>
       </c>
     </row>
@@ -2946,7 +2947,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459305</t>
+          <t>2021-10-05 14:33:12.562395</t>
         </is>
       </c>
     </row>
@@ -2976,7 +2977,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459307</t>
+          <t>2021-10-05 14:33:12.562397</t>
         </is>
       </c>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459309</t>
+          <t>2021-10-05 14:33:12.562400</t>
         </is>
       </c>
     </row>
@@ -3036,7 +3037,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459312</t>
+          <t>2021-10-05 14:33:12.562402</t>
         </is>
       </c>
     </row>
@@ -3066,7 +3067,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459314</t>
+          <t>2021-10-05 14:33:12.562404</t>
         </is>
       </c>
     </row>
@@ -3096,7 +3097,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459317</t>
+          <t>2021-10-05 14:33:12.562406</t>
         </is>
       </c>
     </row>
@@ -3126,7 +3127,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459319</t>
+          <t>2021-10-05 14:33:12.562408</t>
         </is>
       </c>
     </row>
@@ -3156,7 +3157,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459322</t>
+          <t>2021-10-05 14:33:12.562410</t>
         </is>
       </c>
     </row>
@@ -3186,7 +3187,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459324</t>
+          <t>2021-10-05 14:33:12.562412</t>
         </is>
       </c>
     </row>
@@ -3216,7 +3217,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459326</t>
+          <t>2021-10-05 14:33:12.562414</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3247,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459330</t>
+          <t>2021-10-05 14:33:12.562417</t>
         </is>
       </c>
     </row>
@@ -3276,7 +3277,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459333</t>
+          <t>2021-10-05 14:33:12.562420</t>
         </is>
       </c>
     </row>
@@ -3306,7 +3307,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459335</t>
+          <t>2021-10-05 14:33:12.562422</t>
         </is>
       </c>
     </row>
@@ -3336,7 +3337,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459338</t>
+          <t>2021-10-05 14:33:12.562424</t>
         </is>
       </c>
     </row>
@@ -3366,7 +3367,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459340</t>
+          <t>2021-10-05 14:33:12.562426</t>
         </is>
       </c>
     </row>
@@ -3396,7 +3397,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459343</t>
+          <t>2021-10-05 14:33:12.562428</t>
         </is>
       </c>
     </row>
@@ -3426,7 +3427,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459345</t>
+          <t>2021-10-05 14:33:12.562430</t>
         </is>
       </c>
     </row>
@@ -3456,7 +3457,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459347</t>
+          <t>2021-10-05 14:33:12.562432</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3487,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459350</t>
+          <t>2021-10-05 14:33:12.562435</t>
         </is>
       </c>
     </row>
@@ -3516,7 +3517,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459352</t>
+          <t>2021-10-05 14:33:12.562437</t>
         </is>
       </c>
     </row>
@@ -3546,7 +3547,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459355</t>
+          <t>2021-10-05 14:33:12.562439</t>
         </is>
       </c>
     </row>
@@ -3576,7 +3577,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459357</t>
+          <t>2021-10-05 14:33:12.562441</t>
         </is>
       </c>
     </row>
@@ -3606,7 +3607,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459360</t>
+          <t>2021-10-05 14:33:12.562443</t>
         </is>
       </c>
     </row>
@@ -3636,7 +3637,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459362</t>
+          <t>2021-10-05 14:33:12.562445</t>
         </is>
       </c>
     </row>
@@ -3666,7 +3667,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459365</t>
+          <t>2021-10-05 14:33:12.562447</t>
         </is>
       </c>
     </row>
@@ -3696,7 +3697,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459367</t>
+          <t>2021-10-05 14:33:12.562449</t>
         </is>
       </c>
     </row>
@@ -3726,7 +3727,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459371</t>
+          <t>2021-10-05 14:33:12.562453</t>
         </is>
       </c>
     </row>
@@ -3756,7 +3757,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459374</t>
+          <t>2021-10-05 14:33:12.562456</t>
         </is>
       </c>
     </row>
@@ -3786,7 +3787,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459377</t>
+          <t>2021-10-05 14:33:12.562458</t>
         </is>
       </c>
     </row>
@@ -3816,7 +3817,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459379</t>
+          <t>2021-10-05 14:33:12.562460</t>
         </is>
       </c>
     </row>
@@ -3846,7 +3847,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459382</t>
+          <t>2021-10-05 14:33:12.562462</t>
         </is>
       </c>
     </row>
@@ -3876,7 +3877,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459384</t>
+          <t>2021-10-05 14:33:12.562464</t>
         </is>
       </c>
     </row>
@@ -3906,7 +3907,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459387</t>
+          <t>2021-10-05 14:33:12.562467</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3937,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459389</t>
+          <t>2021-10-05 14:33:12.562469</t>
         </is>
       </c>
     </row>
@@ -3966,7 +3967,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459392</t>
+          <t>2021-10-05 14:33:12.562471</t>
         </is>
       </c>
     </row>
@@ -3996,7 +3997,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459394</t>
+          <t>2021-10-05 14:33:12.562473</t>
         </is>
       </c>
     </row>
@@ -4026,7 +4027,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459397</t>
+          <t>2021-10-05 14:33:12.562475</t>
         </is>
       </c>
     </row>
@@ -4056,7 +4057,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459399</t>
+          <t>2021-10-05 14:33:12.562477</t>
         </is>
       </c>
     </row>
@@ -4086,7 +4087,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459402</t>
+          <t>2021-10-05 14:33:12.562479</t>
         </is>
       </c>
     </row>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459404</t>
+          <t>2021-10-05 14:33:12.562481</t>
         </is>
       </c>
     </row>
@@ -4146,7 +4147,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459407</t>
+          <t>2021-10-05 14:33:12.562484</t>
         </is>
       </c>
     </row>
@@ -4176,7 +4177,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459409</t>
+          <t>2021-10-05 14:33:12.562486</t>
         </is>
       </c>
     </row>
@@ -4206,7 +4207,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459411</t>
+          <t>2021-10-05 14:33:12.562488</t>
         </is>
       </c>
     </row>
@@ -4236,7 +4237,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459414</t>
+          <t>2021-10-05 14:33:12.562490</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4267,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459416</t>
+          <t>2021-10-05 14:33:12.562492</t>
         </is>
       </c>
     </row>
@@ -4296,7 +4297,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459419</t>
+          <t>2021-10-05 14:33:12.562494</t>
         </is>
       </c>
     </row>
@@ -4326,7 +4327,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459423</t>
+          <t>2021-10-05 14:33:12.562498</t>
         </is>
       </c>
     </row>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459426</t>
+          <t>2021-10-05 14:33:12.562501</t>
         </is>
       </c>
     </row>
@@ -4386,7 +4387,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459429</t>
+          <t>2021-10-05 14:33:12.562503</t>
         </is>
       </c>
     </row>
@@ -4416,7 +4417,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459431</t>
+          <t>2021-10-05 14:33:12.562505</t>
         </is>
       </c>
     </row>
@@ -4446,7 +4447,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459433</t>
+          <t>2021-10-05 14:33:12.562507</t>
         </is>
       </c>
     </row>
@@ -4476,7 +4477,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459436</t>
+          <t>2021-10-05 14:33:12.562509</t>
         </is>
       </c>
     </row>
@@ -4506,7 +4507,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459438</t>
+          <t>2021-10-05 14:33:12.562512</t>
         </is>
       </c>
     </row>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459441</t>
+          <t>2021-10-05 14:33:12.562514</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4567,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459443</t>
+          <t>2021-10-05 14:33:12.562516</t>
         </is>
       </c>
     </row>
@@ -4596,7 +4597,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459446</t>
+          <t>2021-10-05 14:33:12.562518</t>
         </is>
       </c>
     </row>
@@ -4626,7 +4627,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459448</t>
+          <t>2021-10-05 14:33:12.562520</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4657,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459450</t>
+          <t>2021-10-05 14:33:12.562522</t>
         </is>
       </c>
     </row>
@@ -4686,7 +4687,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459453</t>
+          <t>2021-10-05 14:33:12.562524</t>
         </is>
       </c>
     </row>
@@ -4716,7 +4717,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459455</t>
+          <t>2021-10-05 14:33:12.562526</t>
         </is>
       </c>
     </row>
@@ -4746,7 +4747,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459458</t>
+          <t>2021-10-05 14:33:12.562528</t>
         </is>
       </c>
     </row>
@@ -4776,7 +4777,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459460</t>
+          <t>2021-10-05 14:33:12.562530</t>
         </is>
       </c>
     </row>
@@ -4806,7 +4807,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459463</t>
+          <t>2021-10-05 14:33:12.562533</t>
         </is>
       </c>
     </row>
@@ -4836,7 +4837,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459465</t>
+          <t>2021-10-05 14:33:12.562535</t>
         </is>
       </c>
     </row>
@@ -4866,7 +4867,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459468</t>
+          <t>2021-10-05 14:33:12.562537</t>
         </is>
       </c>
     </row>
@@ -4896,7 +4897,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459470</t>
+          <t>2021-10-05 14:33:12.562539</t>
         </is>
       </c>
     </row>
@@ -4926,7 +4927,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459473</t>
+          <t>2021-10-05 14:33:12.562542</t>
         </is>
       </c>
     </row>
@@ -4956,7 +4957,7 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459476</t>
+          <t>2021-10-05 14:33:12.562544</t>
         </is>
       </c>
     </row>
@@ -4986,7 +4987,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459478</t>
+          <t>2021-10-05 14:33:12.562546</t>
         </is>
       </c>
     </row>
@@ -5016,7 +5017,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459481</t>
+          <t>2021-10-05 14:33:12.562548</t>
         </is>
       </c>
     </row>
@@ -5046,7 +5047,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459483</t>
+          <t>2021-10-05 14:33:12.562550</t>
         </is>
       </c>
     </row>
@@ -5076,7 +5077,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459486</t>
+          <t>2021-10-05 14:33:12.562552</t>
         </is>
       </c>
     </row>
@@ -5106,7 +5107,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459488</t>
+          <t>2021-10-05 14:33:12.562554</t>
         </is>
       </c>
     </row>
@@ -5136,7 +5137,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459491</t>
+          <t>2021-10-05 14:33:12.562557</t>
         </is>
       </c>
     </row>
@@ -5166,7 +5167,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459493</t>
+          <t>2021-10-05 14:33:12.562559</t>
         </is>
       </c>
     </row>
@@ -5196,7 +5197,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459496</t>
+          <t>2021-10-05 14:33:12.562561</t>
         </is>
       </c>
     </row>
@@ -5226,7 +5227,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459498</t>
+          <t>2021-10-05 14:33:12.562563</t>
         </is>
       </c>
     </row>
@@ -5256,7 +5257,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459501</t>
+          <t>2021-10-05 14:33:12.562565</t>
         </is>
       </c>
     </row>
@@ -5286,7 +5287,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459503</t>
+          <t>2021-10-05 14:33:12.562567</t>
         </is>
       </c>
     </row>
@@ -5316,7 +5317,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459506</t>
+          <t>2021-10-05 14:33:12.562569</t>
         </is>
       </c>
     </row>
@@ -5346,7 +5347,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459508</t>
+          <t>2021-10-05 14:33:12.562571</t>
         </is>
       </c>
     </row>
@@ -5376,7 +5377,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459511</t>
+          <t>2021-10-05 14:33:12.562573</t>
         </is>
       </c>
     </row>
@@ -5406,7 +5407,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459513</t>
+          <t>2021-10-05 14:33:12.562576</t>
         </is>
       </c>
     </row>
@@ -5436,7 +5437,7 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459516</t>
+          <t>2021-10-05 14:33:12.562578</t>
         </is>
       </c>
     </row>
@@ -5466,7 +5467,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459518</t>
+          <t>2021-10-05 14:33:12.562580</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5497,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459520</t>
+          <t>2021-10-05 14:33:12.562582</t>
         </is>
       </c>
     </row>
@@ -5526,7 +5527,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459523</t>
+          <t>2021-10-05 14:33:12.562584</t>
         </is>
       </c>
     </row>
@@ -5556,7 +5557,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459525</t>
+          <t>2021-10-05 14:33:12.562586</t>
         </is>
       </c>
     </row>
@@ -5586,7 +5587,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459528</t>
+          <t>2021-10-05 14:33:12.562588</t>
         </is>
       </c>
     </row>
@@ -5616,7 +5617,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459530</t>
+          <t>2021-10-05 14:33:12.562590</t>
         </is>
       </c>
     </row>
@@ -5646,7 +5647,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459534</t>
+          <t>2021-10-05 14:33:12.562594</t>
         </is>
       </c>
     </row>
@@ -5676,7 +5677,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459537</t>
+          <t>2021-10-05 14:33:12.562597</t>
         </is>
       </c>
     </row>
@@ -5706,7 +5707,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459540</t>
+          <t>2021-10-05 14:33:12.562599</t>
         </is>
       </c>
     </row>
@@ -5736,7 +5737,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459542</t>
+          <t>2021-10-05 14:33:12.562601</t>
         </is>
       </c>
     </row>
@@ -5766,7 +5767,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459545</t>
+          <t>2021-10-05 14:33:12.562603</t>
         </is>
       </c>
     </row>
@@ -5796,7 +5797,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459547</t>
+          <t>2021-10-05 14:33:12.562605</t>
         </is>
       </c>
     </row>
@@ -5826,7 +5827,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459550</t>
+          <t>2021-10-05 14:33:12.562607</t>
         </is>
       </c>
     </row>
@@ -5856,7 +5857,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459552</t>
+          <t>2021-10-05 14:33:12.562609</t>
         </is>
       </c>
     </row>
@@ -5886,7 +5887,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459555</t>
+          <t>2021-10-05 14:33:12.562611</t>
         </is>
       </c>
     </row>
@@ -5916,7 +5917,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459557</t>
+          <t>2021-10-05 14:33:12.562613</t>
         </is>
       </c>
     </row>
@@ -5946,7 +5947,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459559</t>
+          <t>2021-10-05 14:33:12.562615</t>
         </is>
       </c>
     </row>
@@ -5976,7 +5977,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459562</t>
+          <t>2021-10-05 14:33:12.562617</t>
         </is>
       </c>
     </row>
@@ -6006,7 +6007,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459564</t>
+          <t>2021-10-05 14:33:12.562619</t>
         </is>
       </c>
     </row>
@@ -6036,7 +6037,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459567</t>
+          <t>2021-10-05 14:33:12.562622</t>
         </is>
       </c>
     </row>
@@ -6066,7 +6067,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459569</t>
+          <t>2021-10-05 14:33:12.562624</t>
         </is>
       </c>
     </row>
@@ -6096,7 +6097,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459572</t>
+          <t>2021-10-05 14:33:12.562626</t>
         </is>
       </c>
     </row>
@@ -6126,7 +6127,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459574</t>
+          <t>2021-10-05 14:33:12.562628</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6157,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459577</t>
+          <t>2021-10-05 14:33:12.562630</t>
         </is>
       </c>
     </row>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459579</t>
+          <t>2021-10-05 14:33:12.562632</t>
         </is>
       </c>
     </row>
@@ -6216,7 +6217,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459582</t>
+          <t>2021-10-05 14:33:12.562634</t>
         </is>
       </c>
     </row>
@@ -6246,7 +6247,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459584</t>
+          <t>2021-10-05 14:33:12.562636</t>
         </is>
       </c>
     </row>
@@ -6276,7 +6277,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459587</t>
+          <t>2021-10-05 14:33:12.562639</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6307,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459589</t>
+          <t>2021-10-05 14:33:12.562641</t>
         </is>
       </c>
     </row>
@@ -6336,7 +6337,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459591</t>
+          <t>2021-10-05 14:33:12.562643</t>
         </is>
       </c>
     </row>
@@ -6366,7 +6367,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459594</t>
+          <t>2021-10-05 14:33:12.562645</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6397,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459596</t>
+          <t>2021-10-05 14:33:12.562647</t>
         </is>
       </c>
     </row>
@@ -6426,7 +6427,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459599</t>
+          <t>2021-10-05 14:33:12.562650</t>
         </is>
       </c>
     </row>
@@ -6456,7 +6457,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459601</t>
+          <t>2021-10-05 14:33:12.562652</t>
         </is>
       </c>
     </row>
@@ -6486,7 +6487,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459604</t>
+          <t>2021-10-05 14:33:12.562654</t>
         </is>
       </c>
     </row>
@@ -6516,7 +6517,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459607</t>
+          <t>2021-10-05 14:33:12.562656</t>
         </is>
       </c>
     </row>
@@ -6546,7 +6547,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459609</t>
+          <t>2021-10-05 14:33:12.562658</t>
         </is>
       </c>
     </row>
@@ -6576,7 +6577,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459612</t>
+          <t>2021-10-05 14:33:12.562660</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6607,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459614</t>
+          <t>2021-10-05 14:33:12.562663</t>
         </is>
       </c>
     </row>
@@ -6636,7 +6637,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459617</t>
+          <t>2021-10-05 14:33:12.562665</t>
         </is>
       </c>
     </row>
@@ -6666,7 +6667,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459619</t>
+          <t>2021-10-05 14:33:12.562667</t>
         </is>
       </c>
     </row>
@@ -6696,7 +6697,7 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459622</t>
+          <t>2021-10-05 14:33:12.562669</t>
         </is>
       </c>
     </row>
@@ -6726,7 +6727,7 @@
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459624</t>
+          <t>2021-10-05 14:33:12.562671</t>
         </is>
       </c>
     </row>
@@ -6756,7 +6757,7 @@
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459626</t>
+          <t>2021-10-05 14:33:12.562673</t>
         </is>
       </c>
     </row>
@@ -6786,7 +6787,7 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459629</t>
+          <t>2021-10-05 14:33:12.562675</t>
         </is>
       </c>
     </row>
@@ -6816,7 +6817,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459632</t>
+          <t>2021-10-05 14:33:12.562677</t>
         </is>
       </c>
     </row>
@@ -6846,7 +6847,7 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459634</t>
+          <t>2021-10-05 14:33:12.562680</t>
         </is>
       </c>
     </row>
@@ -6876,7 +6877,7 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459637</t>
+          <t>2021-10-05 14:33:12.562682</t>
         </is>
       </c>
     </row>
@@ -6906,7 +6907,7 @@
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459639</t>
+          <t>2021-10-05 14:33:12.562684</t>
         </is>
       </c>
     </row>
@@ -6936,7 +6937,7 @@
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459642</t>
+          <t>2021-10-05 14:33:12.562686</t>
         </is>
       </c>
     </row>
@@ -6966,7 +6967,7 @@
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459644</t>
+          <t>2021-10-05 14:33:12.562689</t>
         </is>
       </c>
     </row>
@@ -6996,7 +6997,7 @@
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459647</t>
+          <t>2021-10-05 14:33:12.562691</t>
         </is>
       </c>
     </row>
@@ -7026,7 +7027,7 @@
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459649</t>
+          <t>2021-10-05 14:33:12.562693</t>
         </is>
       </c>
     </row>
@@ -7056,7 +7057,7 @@
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459652</t>
+          <t>2021-10-05 14:33:12.562695</t>
         </is>
       </c>
     </row>
@@ -7086,7 +7087,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459654</t>
+          <t>2021-10-05 14:33:12.562697</t>
         </is>
       </c>
     </row>
@@ -7116,7 +7117,7 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459657</t>
+          <t>2021-10-05 14:33:12.562699</t>
         </is>
       </c>
     </row>
@@ -7146,7 +7147,7 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459659</t>
+          <t>2021-10-05 14:33:12.562701</t>
         </is>
       </c>
     </row>
@@ -7176,7 +7177,7 @@
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459661</t>
+          <t>2021-10-05 14:33:12.562703</t>
         </is>
       </c>
     </row>
@@ -7206,7 +7207,91 @@
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2021-10-05 10:50:11.459664</t>
+          <t>2021-10-05 14:33:12.562706</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>data_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>data_id</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>data_version_created</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>panel_query_time</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>panel_get_request</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Ataxia - paediatric</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>271</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.293</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2021-10-04T07:11:15.290045Z</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2021-10-05 14:33:12.559317</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://panelapp.agha.umccr.org/api/v1/panels/271/?format=json</t>
         </is>
       </c>
     </row>
